--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B53EA9-20DA-44F0-90F7-93D55403752D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF8826-4113-40E5-9814-0154B03E4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -539,67 +539,67 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X2" s="1">
         <v>2</v>
@@ -637,16 +637,16 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="X3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y3" s="1">
         <v>2</v>
@@ -735,70 +735,70 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W4" s="1">
         <v>1</v>
       </c>
       <c r="X4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="1">
         <v>2</v>
@@ -833,70 +833,70 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="K5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="O5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="P5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="R5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="T5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="U5" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="V5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W5" s="1">
         <v>1</v>
       </c>
       <c r="X5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y5" s="1">
         <v>2</v>
@@ -931,22 +931,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
         <v>-1</v>
@@ -988,13 +988,13 @@
         <v>-1</v>
       </c>
       <c r="V6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W6" s="1">
         <v>1</v>
       </c>
       <c r="X6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="1">
         <v>2</v>
@@ -1029,22 +1029,22 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I7" s="1">
         <v>-1</v>
@@ -1086,13 +1086,13 @@
         <v>-1</v>
       </c>
       <c r="V7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W7" s="1">
         <v>1</v>
       </c>
       <c r="X7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y7" s="1">
         <v>2</v>
@@ -1127,22 +1127,22 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8" s="1">
         <v>-1</v>
@@ -1184,7 +1184,7 @@
         <v>-1</v>
       </c>
       <c r="V8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W8" s="1">
         <v>1</v>
@@ -1225,22 +1225,22 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I9" s="1">
         <v>-1</v>
@@ -1285,7 +1285,7 @@
         <v>-1</v>
       </c>
       <c r="W9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X9" s="1">
         <v>1</v>
@@ -1323,22 +1323,22 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
         <v>-1</v>
@@ -1386,7 +1386,7 @@
         <v>-1</v>
       </c>
       <c r="X10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y10" s="1">
         <v>1</v>
@@ -1395,22 +1395,22 @@
         <v>1</v>
       </c>
       <c r="AA10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
@@ -1421,22 +1421,22 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I11" s="1">
         <v>-1</v>
@@ -1487,7 +1487,7 @@
         <v>-1</v>
       </c>
       <c r="Y11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z11" s="1">
         <v>1</v>
@@ -1519,22 +1519,22 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I12" s="1">
         <v>-1</v>
@@ -1588,25 +1588,25 @@
         <v>-1</v>
       </c>
       <c r="Z12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -1617,22 +1617,22 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="1">
         <v>-1</v>
@@ -1715,22 +1715,22 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I14" s="1">
         <v>-1</v>
@@ -1813,16 +1813,16 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -1911,16 +1911,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2207,7 +2207,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:U5 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 S8:S11 C8:G16 J15:K18 B2:B16 C5:H14 N8:Y8 H12:AF14 Q9:Z11 U11:V12 W3:Y7 Z3:Z10 C4:F17 G17:AF17 AA3:AE9 V5:AF12 C2:AE4 V4:W6">
+  <conditionalFormatting sqref="B2:B16 W3:Y7 AA3:AE9 Z3:Z10 V4:W6 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 H12:AF14 J15:K18 G17:AF17 C5:H14 G4:G14 C3:F17 C3:U5 C2:AE4 X3:X8 V5:AF12">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4905B0EA-B01B-4E77-AA7D-C9D770F6509D}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Study\互联网应用实践\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CF8826-4113-40E5-9814-0154B03E4377}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C518E320-225A-4F4A-BBB1-3172B26BD896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,6 +23,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,11 +429,12 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1032,10 +1037,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1130,10 +1135,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E8" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1585,7 +1590,7 @@
         <v>-1</v>
       </c>
       <c r="Y12" s="1">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Z12" s="1">
         <v>3</v>
@@ -2207,7 +2212,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B16 W3:Y7 AA3:AE9 Z3:Z10 V4:W6 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 H12:AF14 J15:K18 G17:AF17 C5:H14 G4:G14 C3:F17 C3:U5 C2:AE4 X3:X8 V5:AF12">
+  <conditionalFormatting sqref="C2:AE4 B2:B16 C3:U5 W3:Y7 X3:X8 AA3:AE9 Z3:Z10 C3:F17 V4:W6 G4:G14 V5:AF12 C5:H14 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 H12:AF14 J15:K18 G17:AF17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A86BC47-CD2F-453B-9503-4227F6680FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97B53B-5384-4454-9EFB-5B789E01932E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -55,25 +55,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -90,21 +72,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -421,16 +400,16 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -528,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -626,7 +605,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -724,7 +703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -822,7 +801,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -920,7 +899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -1018,7 +997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1116,7 +1095,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1214,7 +1193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1312,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1410,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1508,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1606,7 +1585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1704,7 +1683,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1802,7 +1781,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1900,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1998,7 +1977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2096,7 +2075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2218,16 +2197,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AC17" sqref="AC17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AD14" sqref="AD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2261,586 +2240,588 @@
       <c r="AE1" s="2"/>
       <c r="AF1" s="2"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
       <c r="AF2" s="2"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
       <c r="AF3" s="2"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
       <c r="AF4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="1"/>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1"/>
-      <c r="AD5" s="1"/>
-      <c r="AE5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
       <c r="AF5" s="2"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
       <c r="AF7" s="2"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
       <c r="AF8" s="2"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
       <c r="AF9" s="2"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
       <c r="AF10" s="2"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
       <c r="AF11" s="2"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
       <c r="AF12" s="2"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
       <c r="AF13" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="4">
+        <v>5</v>
+      </c>
+      <c r="AE14" s="2"/>
       <c r="AF14" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="4"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="3"/>
       <c r="AF15" s="2"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="2"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="3"/>
       <c r="AF16" s="2"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="4"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="3"/>
       <c r="AF17" s="2"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="4"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
+      <c r="O18" s="3"/>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="3"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="3"/>
+      <c r="T18" s="3"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="3"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="3"/>
+      <c r="Z18" s="3"/>
+      <c r="AA18" s="3"/>
+      <c r="AB18" s="3"/>
+      <c r="AC18" s="3"/>
+      <c r="AD18" s="3"/>
+      <c r="AE18" s="3"/>
       <c r="AF18" s="2"/>
     </row>
   </sheetData>
@@ -2854,13 +2835,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="L30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2874,7 +2855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2888,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2902,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2916,7 +2897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2930,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2944,7 +2925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2958,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2972,7 +2953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2986,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W11">
         <v>2</v>
       </c>
@@ -3003,7 +2984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W12">
         <v>2</v>
       </c>
@@ -3020,7 +3001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W13">
         <v>2</v>
       </c>
@@ -3037,7 +3018,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W14">
         <v>2</v>
       </c>
@@ -3054,7 +3035,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W15">
         <v>2</v>
       </c>
@@ -3071,7 +3052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
       <c r="W16">
         <v>2</v>
       </c>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF97B53B-5384-4454-9EFB-5B789E01932E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0863D6B-F247-49E2-A299-D0FCE92E9098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9848" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
     <sheet name="EventArea" sheetId="2" r:id="rId2"/>
     <sheet name="DramaArea" sheetId="3" r:id="rId3"/>
+    <sheet name="SignArea" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -60,7 +61,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -68,24 +69,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -400,16 +487,16 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -507,7 +594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -605,7 +692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -703,7 +790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -801,7 +888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -899,7 +986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -997,7 +1084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1095,7 +1182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1193,7 +1280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1291,7 +1378,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1389,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1487,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1585,7 +1672,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -1683,7 +1770,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1781,7 +1868,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -1879,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1977,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -2075,7 +2162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -2197,632 +2284,632 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AD14" sqref="AD14"/>
+    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AD5" s="2"/>
-      <c r="AE5" s="2"/>
-      <c r="AF5" s="2"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
-      <c r="AF6" s="2"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AD8" s="2"/>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AD10" s="2"/>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AD12" s="2"/>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AD13" s="2"/>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AD14" s="4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="3">
         <v>5</v>
       </c>
-      <c r="AE14" s="2"/>
-      <c r="AF14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AD15" s="2"/>
-      <c r="AE15" s="3"/>
-      <c r="AF15" s="2"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AD16" s="2"/>
-      <c r="AE16" s="3"/>
-      <c r="AF16" s="2"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AD17" s="2"/>
-      <c r="AE17" s="3"/>
-      <c r="AF17" s="2"/>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AD18" s="3"/>
-      <c r="AE18" s="3"/>
-      <c r="AF18" s="2"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="1"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="1"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="1"/>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2835,13 +2922,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView topLeftCell="L30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P55" sqref="P55"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2855,7 +2945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2869,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2883,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2897,7 +2987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2911,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2925,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2939,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2953,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2967,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W11">
         <v>2</v>
       </c>
@@ -2984,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W12">
         <v>2</v>
       </c>
@@ -3001,7 +3091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W13">
         <v>2</v>
       </c>
@@ -3018,7 +3108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W14">
         <v>2</v>
       </c>
@@ -3035,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W15">
         <v>2</v>
       </c>
@@ -3052,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="W16">
         <v>2</v>
       </c>
@@ -3068,6 +3158,637 @@
       <c r="AA16">
         <v>2</v>
       </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AF18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AJ17" sqref="AJ17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="9"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="9"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="9"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="9"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="8"/>
+      <c r="AF6" s="9"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="9"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="8"/>
+      <c r="AF8" s="9"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="8"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="8"/>
+      <c r="AF9" s="9"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="9"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="9"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="9"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="9"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="9"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="9"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="9"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="9"/>
+    </row>
+    <row r="18" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
+      <c r="X18" s="11"/>
+      <c r="Y18" s="11"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="11"/>
+      <c r="AC18" s="11"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="11"/>
+      <c r="AF18" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0863D6B-F247-49E2-A299-D0FCE92E9098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E51BE-5A9B-44D6-B933-F3CFB4CC796A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -168,7 +168,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -487,7 +486,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="AF12" sqref="AF12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2920,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2931,22 +2930,50 @@
     <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5">
+        <v>1</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
       <c r="B2">
@@ -2958,9 +2985,10 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="AF2" s="8"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
       <c r="B3">
@@ -2972,9 +3000,10 @@
       <c r="D3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="AF3" s="8"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
       <c r="B4">
@@ -2986,9 +3015,10 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="AF4" s="8"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
       <c r="B5">
@@ -3000,9 +3030,10 @@
       <c r="D5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="AF5" s="8"/>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
         <v>1</v>
       </c>
       <c r="B6">
@@ -3014,9 +3045,10 @@
       <c r="D6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="AF6" s="8"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
         <v>1</v>
       </c>
       <c r="B7">
@@ -3028,9 +3060,10 @@
       <c r="D7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="AF7" s="8"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
         <v>1</v>
       </c>
       <c r="B8">
@@ -3042,9 +3075,10 @@
       <c r="D8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="AF8" s="8"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
         <v>1</v>
       </c>
       <c r="B9">
@@ -3056,8 +3090,14 @@
       <c r="D9">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF9" s="8"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="AF10" s="8"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
       <c r="W11">
         <v>2</v>
       </c>
@@ -3073,8 +3113,10 @@
       <c r="AA11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF11" s="8"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
       <c r="W12">
         <v>2</v>
       </c>
@@ -3090,8 +3132,10 @@
       <c r="AA12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF12" s="8"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
       <c r="W13">
         <v>2</v>
       </c>
@@ -3107,8 +3151,10 @@
       <c r="AA13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF13" s="8"/>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
       <c r="W14">
         <v>2</v>
       </c>
@@ -3124,8 +3170,10 @@
       <c r="AA14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF14" s="8"/>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
       <c r="W15">
         <v>2</v>
       </c>
@@ -3141,8 +3189,10 @@
       <c r="AA15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AF15" s="8"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
       <c r="W16">
         <v>2</v>
       </c>
@@ -3158,6 +3208,45 @@
       <c r="AA16">
         <v>2</v>
       </c>
+      <c r="AF16" s="8"/>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="AF17" s="8"/>
+    </row>
+    <row r="18" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3170,7 +3259,7 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AJ17" sqref="AJ17"/>
+      <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3214,581 +3303,109 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="9"/>
+      <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="9"/>
+      <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="9"/>
+      <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8"/>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8"/>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="9"/>
+      <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8"/>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8"/>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="9"/>
+      <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="8"/>
-      <c r="AB7" s="8"/>
-      <c r="AC7" s="8"/>
-      <c r="AD7" s="8"/>
-      <c r="AE7" s="8"/>
-      <c r="AF7" s="9"/>
+      <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="8"/>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="8"/>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="9"/>
+      <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="8"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="8"/>
-      <c r="AC9" s="8"/>
-      <c r="AD9" s="8"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="9"/>
+      <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="8"/>
-      <c r="Z10" s="8"/>
-      <c r="AA10" s="8"/>
-      <c r="AB10" s="8"/>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="9"/>
+      <c r="AF10" s="8"/>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="8"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="8"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="8"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="8"/>
-      <c r="Z11" s="8"/>
-      <c r="AA11" s="8"/>
-      <c r="AB11" s="8"/>
-      <c r="AC11" s="8"/>
-      <c r="AD11" s="8"/>
-      <c r="AE11" s="8"/>
-      <c r="AF11" s="9"/>
+      <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="8"/>
-      <c r="R12" s="8"/>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="8"/>
-      <c r="Z12" s="8"/>
-      <c r="AA12" s="8"/>
-      <c r="AB12" s="8"/>
-      <c r="AC12" s="8"/>
-      <c r="AD12" s="8"/>
-      <c r="AE12" s="8"/>
-      <c r="AF12" s="9"/>
+      <c r="AD12" s="8">
+        <v>7</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>7</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>7</v>
+      </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="8"/>
-      <c r="R13" s="8"/>
-      <c r="S13" s="8"/>
-      <c r="T13" s="8"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="8"/>
-      <c r="Z13" s="8"/>
-      <c r="AA13" s="8"/>
-      <c r="AB13" s="8"/>
-      <c r="AC13" s="8"/>
-      <c r="AD13" s="8"/>
-      <c r="AE13" s="8"/>
-      <c r="AF13" s="9"/>
+      <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="R14" s="8"/>
-      <c r="S14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="8"/>
-      <c r="Z14" s="8"/>
-      <c r="AA14" s="8"/>
-      <c r="AB14" s="8"/>
-      <c r="AC14" s="8"/>
-      <c r="AD14" s="8"/>
-      <c r="AE14" s="8"/>
-      <c r="AF14" s="9"/>
+      <c r="AF14" s="8"/>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
-      <c r="P15" s="8"/>
-      <c r="Q15" s="8"/>
-      <c r="R15" s="8"/>
-      <c r="S15" s="8"/>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="8"/>
-      <c r="Z15" s="8"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="8"/>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="9"/>
+      <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="8"/>
-      <c r="R16" s="8"/>
-      <c r="S16" s="8"/>
-      <c r="T16" s="8"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="8"/>
-      <c r="Z16" s="8"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
-      <c r="AC16" s="8"/>
-      <c r="AD16" s="8"/>
-      <c r="AE16" s="8"/>
-      <c r="AF16" s="9"/>
+      <c r="AF16" s="8"/>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="8"/>
-      <c r="R17" s="8"/>
-      <c r="S17" s="8"/>
-      <c r="T17" s="8"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="8"/>
-      <c r="X17" s="8"/>
-      <c r="Y17" s="8"/>
-      <c r="Z17" s="8"/>
-      <c r="AA17" s="8"/>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="8"/>
-      <c r="AD17" s="8"/>
-      <c r="AE17" s="8"/>
-      <c r="AF17" s="9"/>
+      <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="12"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5E51BE-5A9B-44D6-B933-F3CFB4CC796A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328AB349-2649-4835-BC1F-93B95B5A4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="3180" windowWidth="23040" windowHeight="14100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27900" yWindow="840" windowWidth="21600" windowHeight="12516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -176,7 +176,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
       <border>
         <left style="thin">
@@ -206,6 +206,52 @@
           <bgColor theme="6" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF9C0006"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF9C0006"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF9C0006"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF9C0006"/>
+        </bottom>
+      </border>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -485,123 +531,123 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AF12" sqref="AF12"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Y10" sqref="Y10:AE10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC1" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -610,10 +656,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -664,42 +710,42 @@
         <v>1</v>
       </c>
       <c r="X2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE2" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF2" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -708,10 +754,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" s="1">
         <v>1</v>
@@ -765,39 +811,39 @@
         <v>1</v>
       </c>
       <c r="Y3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE3" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -806,96 +852,96 @@
         <v>1</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V4" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W4" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4" s="1">
         <v>1</v>
       </c>
       <c r="Y4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
@@ -904,96 +950,96 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
       </c>
       <c r="H5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="K5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="L5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="M5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="N5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="O5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Q5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="R5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="S5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="T5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="U5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="V5" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W5" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5" s="1">
         <v>1</v>
       </c>
       <c r="Y5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
@@ -1002,13 +1048,13 @@
         <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" s="1">
         <v>3</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I6" s="1">
         <v>-1</v>
@@ -1050,48 +1096,48 @@
         <v>-1</v>
       </c>
       <c r="V6" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W6" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6" s="1">
         <v>1</v>
       </c>
       <c r="Y6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="1">
         <v>11</v>
@@ -1100,13 +1146,13 @@
         <v>13</v>
       </c>
       <c r="F7" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I7" s="1">
         <v>-1</v>
@@ -1148,48 +1194,48 @@
         <v>-1</v>
       </c>
       <c r="V7" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W7" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X7" s="1">
         <v>1</v>
       </c>
       <c r="Y7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1">
         <v>11</v>
@@ -1198,13 +1244,13 @@
         <v>13</v>
       </c>
       <c r="F8" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I8" s="1">
         <v>-1</v>
@@ -1246,48 +1292,48 @@
         <v>-1</v>
       </c>
       <c r="V8" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="W8" s="1">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
       </c>
       <c r="Y8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
@@ -1296,13 +1342,13 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="1">
         <v>3</v>
       </c>
       <c r="H9" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I9" s="1">
         <v>-1</v>
@@ -1347,7 +1393,7 @@
         <v>-1</v>
       </c>
       <c r="W9" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X9" s="1">
         <v>1</v>
@@ -1356,36 +1402,36 @@
         <v>1</v>
       </c>
       <c r="Z9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC9" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
@@ -1394,13 +1440,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
         <v>3</v>
       </c>
       <c r="H10" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I10" s="1">
         <v>-1</v>
@@ -1448,7 +1494,7 @@
         <v>-1</v>
       </c>
       <c r="X10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="1">
         <v>1</v>
@@ -1475,15 +1521,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
@@ -1492,13 +1538,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="1">
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I11" s="1">
         <v>-1</v>
@@ -1549,7 +1595,7 @@
         <v>-1</v>
       </c>
       <c r="Y11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z11" s="1">
         <v>1</v>
@@ -1573,15 +1619,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
@@ -1590,13 +1636,13 @@
         <v>1</v>
       </c>
       <c r="F12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="1">
         <v>3</v>
       </c>
       <c r="H12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I12" s="1">
         <v>-1</v>
@@ -1647,39 +1693,39 @@
         <v>-1</v>
       </c>
       <c r="Y12" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Z12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF12" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
@@ -1688,13 +1734,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G13" s="1">
         <v>3</v>
       </c>
       <c r="H13" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I13" s="1">
         <v>-1</v>
@@ -1769,15 +1815,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
@@ -1786,13 +1832,13 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="1">
         <v>3</v>
       </c>
       <c r="H14" s="1">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="I14" s="1">
         <v>-1</v>
@@ -1867,15 +1913,15 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
@@ -1884,10 +1930,10 @@
         <v>1</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1965,15 +2011,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
@@ -1982,10 +2028,10 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" s="1">
         <v>1</v>
@@ -2063,219 +2109,224 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="W18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:AF18">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:AE4 B2:B16 C3:U5 W3:Y7 X3:X8 AA3:AE9 Z3:Z10 C3:F17 V4:W6 G4:G14 V5:AF12 C5:H14 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 H12:AF14 J15:K18 G17:AF17">
+  <conditionalFormatting sqref="C2:AE4 C3:U5 W3:Y7 V4:W6 C5:H14 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 J15:K18 G17:AF17 A2:B16 A1:C1 H12:AF14 H4:I13 F1:G18 A17:E18 C3:F17 B1:C18 D1:E5 E1:E6 J4:V5 W2:X6 W4:W9 H17:AE18 Y2:AF10 X3:X10 V5:AF12">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:AE1 Z2:AE10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2287,12 +2338,12 @@
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2326,7 +2377,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2360,7 +2411,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2394,7 +2445,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2428,7 +2479,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2462,7 +2513,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2496,7 +2547,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2530,7 +2581,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2564,7 +2615,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2598,7 +2649,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2632,7 +2683,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2666,7 +2717,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2700,7 +2751,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2736,7 +2787,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2774,7 +2825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2808,7 +2859,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2842,7 +2893,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2876,7 +2927,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2925,12 +2976,12 @@
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+    <col min="1" max="32" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -2972,7 +3023,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -2987,7 +3038,7 @@
       </c>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3002,7 +3053,7 @@
       </c>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -3017,7 +3068,7 @@
       </c>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3032,7 +3083,7 @@
       </c>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -3047,7 +3098,7 @@
       </c>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -3062,7 +3113,7 @@
       </c>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3077,7 +3128,7 @@
       </c>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3092,11 +3143,11 @@
       </c>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="W11">
         <v>2</v>
@@ -3115,7 +3166,7 @@
       </c>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="W12">
         <v>2</v>
@@ -3134,7 +3185,7 @@
       </c>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="W13">
         <v>2</v>
@@ -3153,7 +3204,7 @@
       </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="W14">
         <v>2</v>
@@ -3172,7 +3223,7 @@
       </c>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="W15">
         <v>2</v>
@@ -3191,7 +3242,7 @@
       </c>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="W16">
         <v>2</v>
@@ -3210,11 +3261,11 @@
       </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3258,16 +3309,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AI12" sqref="AI12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+    <col min="1" max="32" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3301,79 +3352,75 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="AD12" s="8">
         <v>7</v>
       </c>
-      <c r="AE12" s="8">
-        <v>7</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dusti\Documents\Programming\portal_2d\assets\stages\maps\MapEditor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328AB349-2649-4835-BC1F-93B95B5A4297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442245F-3020-478D-B17D-EF94A857607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27900" yWindow="840" windowWidth="21600" windowHeight="12516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
     <sheet name="EventArea" sheetId="2" r:id="rId2"/>
     <sheet name="DramaArea" sheetId="3" r:id="rId3"/>
     <sheet name="SignArea" sheetId="4" r:id="rId4"/>
+    <sheet name="backgroundObjects" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -176,37 +177,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FF9C0006"/>
-        </left>
-        <right style="thin">
-          <color rgb="FF9C0006"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF9C0006"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF9C0006"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <border>
         <left style="thin">
@@ -531,17 +502,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10:AE10"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -639,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -737,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -835,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -933,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1031,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1129,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1227,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1325,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1423,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1521,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1619,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1717,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1815,7 +1786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1913,7 +1884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -2011,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2109,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2207,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2307,6 +2278,11 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C1 D1:E5 E1:E6 B1:C18 F1:G18 C2:AE4 W2:X6 A2:B16 C3:U5 W3:Y7 X3:X10 C3:F17 J4:V5 V4:W6 W4:W9 H4:I13 V5:AF12 C5:H14 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 H12:AF14 J15:K18 G17:AF17 A17:E18 H17:AE18">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>-1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:AF18">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>2</formula>
@@ -2315,18 +2291,13 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:AE4 C3:U5 W3:Y7 V4:W6 C5:H14 G6:U6 C6:Q7 S6:AF7 M6:M8 R6:R8 H7:P11 N8:Y8 S8:S11 C8:G16 Q9:Z11 U11:V12 J15:K18 G17:AF17 A2:B16 A1:C1 H12:AF14 H4:I13 F1:G18 A17:E18 C3:F17 B1:C18 D1:E5 E1:E6 J4:V5 W2:X6 W4:W9 H17:AE18 Y2:AF10 X3:X10 V5:AF12">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>-1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H1:AE1 Z2:AE10">
+  <conditionalFormatting sqref="H1:AE1 Y2:AF10">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>-1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -2338,12 +2309,12 @@
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2377,7 +2348,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2411,7 +2382,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2445,7 +2416,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2479,7 +2450,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2513,7 +2484,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2547,7 +2518,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2581,7 +2552,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2615,7 +2586,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2649,7 +2620,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2683,7 +2654,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2717,7 +2688,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2751,7 +2722,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2787,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2825,7 +2796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2859,7 +2830,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2893,7 +2864,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2927,7 +2898,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2976,12 +2947,12 @@
       <selection activeCell="Z17" sqref="Z17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="2.796875" customWidth="1"/>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
         <v>1</v>
       </c>
@@ -3023,7 +2994,7 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -3038,7 +3009,7 @@
       </c>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -3053,7 +3024,7 @@
       </c>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>1</v>
       </c>
@@ -3068,7 +3039,7 @@
       </c>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -3083,7 +3054,7 @@
       </c>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -3098,7 +3069,7 @@
       </c>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>1</v>
       </c>
@@ -3113,7 +3084,7 @@
       </c>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>1</v>
       </c>
@@ -3128,7 +3099,7 @@
       </c>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>1</v>
       </c>
@@ -3143,11 +3114,11 @@
       </c>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="W11">
         <v>2</v>
@@ -3166,7 +3137,7 @@
       </c>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="W12">
         <v>2</v>
@@ -3185,7 +3156,7 @@
       </c>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="W13">
         <v>2</v>
@@ -3204,7 +3175,7 @@
       </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="W14">
         <v>2</v>
@@ -3223,7 +3194,7 @@
       </c>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="W15">
         <v>2</v>
@@ -3242,7 +3213,7 @@
       </c>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="W16">
         <v>2</v>
@@ -3261,11 +3232,11 @@
       </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3313,12 +3284,12 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="2.796875" customWidth="1"/>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3352,47 +3323,47 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="AD12" s="8">
         <v>7</v>
@@ -3400,27 +3371,27 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3458,4 +3429,31 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="H4:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D442245F-3020-478D-B17D-EF94A857607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E555F27-3EC0-4D78-B49F-6520D38B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -2305,7 +2305,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
@@ -2943,8 +2943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2953,18 +2953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="4">
-        <v>1</v>
-      </c>
-      <c r="B1" s="5">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5">
-        <v>1</v>
-      </c>
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2995,123 +2987,35 @@
       <c r="AF1" s="6"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
+      <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
+      <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
+      <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
+      <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
+      <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
+      <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
+      <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
+      <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
@@ -3433,22 +3337,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="H4:H5"/>
+  <dimension ref="I5:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:H5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H4">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H5">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I6">
         <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E555F27-3EC0-4D78-B49F-6520D38B0E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BABF50-B8B0-482F-BBB0-9D7FCC7AA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="23040" windowHeight="14100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2573" yWindow="2573" windowWidth="14399" windowHeight="8812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -503,16 +503,16 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2305,16 +2305,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AB18" sqref="AB18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2348,7 +2348,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2416,7 +2416,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2424,7 +2424,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>7</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2450,7 +2452,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2484,7 +2486,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2518,7 +2520,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2552,7 +2554,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2586,7 +2588,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2620,7 +2622,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2654,7 +2656,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2688,7 +2690,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2722,7 +2724,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2758,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2796,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2830,7 +2832,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2864,7 +2866,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2898,7 +2900,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2943,16 +2945,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+    <col min="1" max="32" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2986,43 +2988,43 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="W11">
         <v>2</v>
@@ -3041,7 +3043,7 @@
       </c>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="W12">
         <v>2</v>
@@ -3060,7 +3062,7 @@
       </c>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="W13">
         <v>2</v>
@@ -3079,7 +3081,7 @@
       </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="W14">
         <v>2</v>
@@ -3098,7 +3100,7 @@
       </c>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="W15">
         <v>2</v>
@@ -3117,7 +3119,7 @@
       </c>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="W16">
         <v>2</v>
@@ -3136,11 +3138,11 @@
       </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3188,12 +3190,12 @@
       <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="32" width="2.77734375" customWidth="1"/>
+    <col min="1" max="32" width="2.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3227,47 +3229,47 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="AD12" s="8">
         <v>7</v>
@@ -3275,27 +3277,27 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3343,9 +3345,9 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="9:10" x14ac:dyDescent="0.4">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3353,7 +3355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="9:10" x14ac:dyDescent="0.4">
       <c r="I6">
         <v>0</v>
       </c>

--- a/assets/stages/maps/MapEditor/Room1.xlsx
+++ b/assets/stages/maps/MapEditor/Room1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Files\2024-2025-1\Web\portal_2d\assets\stages\maps\MapEditor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BABF50-B8B0-482F-BBB0-9D7FCC7AA165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744249AD-507D-415E-B3EB-1BF25BF801E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2573" yWindow="2573" windowWidth="14399" windowHeight="8812" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23040" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BlocksandBackground" sheetId="1" r:id="rId1"/>
@@ -503,16 +503,16 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="L13" sqref="L13:N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="5" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>1</v>
       </c>
@@ -610,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -708,7 +708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -904,7 +904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1394,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -2178,7 +2178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -2305,16 +2305,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AF18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.19921875" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="3.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="3.53125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -2348,7 +2348,7 @@
       <c r="AE1" s="1"/>
       <c r="AF1" s="1"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2382,7 +2382,7 @@
       <c r="AE2" s="1"/>
       <c r="AF2" s="1"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2416,7 +2416,7 @@
       <c r="AE3" s="1"/>
       <c r="AF3" s="1"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2452,7 +2452,7 @@
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2486,7 +2486,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2520,7 +2520,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2554,7 +2554,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2588,7 +2588,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2622,7 +2622,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2656,7 +2656,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2690,7 +2690,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2724,7 +2724,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2760,7 +2760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2798,7 +2798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2832,7 +2832,7 @@
       <c r="AE15" s="2"/>
       <c r="AF15" s="1"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2866,7 +2866,7 @@
       <c r="AE16" s="2"/>
       <c r="AF16" s="1"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -2900,7 +2900,7 @@
       <c r="AE17" s="2"/>
       <c r="AF17" s="1"/>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2946,15 +2946,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="O13" sqref="O13:Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="2.796875" customWidth="1"/>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2988,43 +2988,43 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="W11">
         <v>2</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="W12">
         <v>2</v>
@@ -3062,8 +3062,17 @@
       </c>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
       <c r="W13">
         <v>2</v>
       </c>
@@ -3081,8 +3090,17 @@
       </c>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
       <c r="W14">
         <v>2</v>
       </c>
@@ -3100,7 +3118,7 @@
       </c>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="W15">
         <v>2</v>
@@ -3119,7 +3137,7 @@
       </c>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="W16">
         <v>2</v>
@@ -3138,11 +3156,11 @@
       </c>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3187,15 +3205,15 @@
   <dimension ref="A1:AF18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="32" width="2.796875" customWidth="1"/>
+    <col min="1" max="32" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -3229,47 +3247,47 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="6"/>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="AF2" s="8"/>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="AF3" s="8"/>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="AF4" s="8"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="AF5" s="8"/>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="AF6" s="8"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="AF7" s="8"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="AF8" s="8"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="AF9" s="8"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="AF10" s="8"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="7"/>
       <c r="AF11" s="8"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="7"/>
       <c r="AD12" s="8">
         <v>7</v>
@@ -3277,27 +3295,27 @@
       <c r="AE12" s="8"/>
       <c r="AF12" s="8"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="AF13" s="8"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="AF14" s="8"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="AF15" s="8"/>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="AF16" s="8"/>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="AF17" s="8"/>
     </row>
-    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -3339,15 +3357,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="I5:J6"/>
+  <dimension ref="I5:Q14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13:Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="5" spans="9:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I5">
         <v>0</v>
       </c>
@@ -3355,12 +3373,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="9:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="9:17" x14ac:dyDescent="0.25">
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>12</v>
+      </c>
+      <c r="P13">
+        <v>12</v>
+      </c>
+      <c r="Q13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="9:17" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>12</v>
+      </c>
+      <c r="P14">
+        <v>12</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
